--- a/Weather Station BOM.xlsx
+++ b/Weather Station BOM.xlsx
@@ -1,13 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\weather\weather\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5679C2-C601-4582-B8B9-1391732E7278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1XronL19/cYiHb4K6ZfNTqPE5UenIrvOLbDvqqv1xDA="/>
     </ext>
@@ -16,22 +36,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B5">
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAABgtZ56YI
 Richard Shan    (2025-03-23 22:15:35)
 are we trying to do this the funny way</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miNqG4eE5ClCZqBS9nz1FQmWC3tQg=="/>
     </ext>
   </extLst>
@@ -39,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Weather Station - Bill of Materials (BOM)</t>
   </si>
@@ -132,87 +160,124 @@
   </si>
   <si>
     <t>Total Cost</t>
+  </si>
+  <si>
+    <t>TP-Link Archer T2U Plus</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/wireless-USB-WiFi-Adapter-PC/dp/B07P5PRK7J/ref=asc_df_B07P5PRK7J?mcid=f05e3ed3de06391884631fe9e3ef6d86&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693308325592&amp;hvpos=&amp;hvnetw=g&amp;hvrand=10317888776771894307&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9191950&amp;hvtargid=pla-759946407819&amp;th=1</t>
+  </si>
+  <si>
+    <t>AC600 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Proxima Nova&quot;"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF222222"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -220,7 +285,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -242,91 +307,80 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -516,266 +570,299 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="28.88"/>
-    <col customWidth="1" min="3" max="4" width="12.63"/>
-    <col customWidth="1" min="5" max="5" width="13.13"/>
-    <col customWidth="1" min="6" max="6" width="12.63"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>35.0</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7">
-        <f t="shared" ref="A4:A9" si="1">A3+1</f>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
         <v>14.95</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7">
-        <f t="shared" si="1"/>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A5" s="6">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8">
-        <v>1733.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="6">
+        <v>1733</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
         <v>44.95</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7">
-        <f t="shared" si="1"/>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A6" s="6">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
         <v>29.9</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7">
-        <f t="shared" si="1"/>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A7" s="6">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="13">
         <v>6.5</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7">
-        <f t="shared" si="1"/>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="15">
-        <v>58.0</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="13">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7">
-        <f t="shared" si="1"/>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18">
-        <v>1980.0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D9" s="16">
+        <v>1980</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="13">
         <v>6.95</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="E11" s="19" t="s">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="23">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1">
+      <c r="E11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="20">
-        <f>SUM(F2:F9)</f>
-        <v>196.25</v>
+      <c r="F11" s="18">
+        <f>SUM(F2:F10)</f>
+        <v>211.25</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="21"/>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1">
+      <c r="C12" s="6"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="F13" s="22"/>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1">
+      <c r="F13" s="15"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="F14" s="22"/>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1">
+      <c r="F14" s="15"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="F15" s="24"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1">
+      <c r="B15" s="19"/>
+      <c r="F15" s="13"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -1758,15 +1845,15 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
-    <hyperlink r:id="rId6" ref="G7"/>
-    <hyperlink r:id="rId7" ref="G8"/>
-    <hyperlink r:id="rId8" ref="G9"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
-  <drawing r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>